--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>PARTICIPACION</t>
   </si>
 </sst>
 </file>
@@ -358,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +458,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -795,20 +805,20 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -840,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -878,7 +888,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -909,14 +919,14 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -954,7 +964,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -985,14 +995,14 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1023,14 +1033,14 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1045,14 +1055,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1083,14 +1093,14 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1121,14 +1131,14 @@
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O12</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1159,14 +1169,14 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1197,14 +1207,14 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1235,14 +1245,14 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1257,14 +1267,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1279,14 +1289,14 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1301,14 +1311,14 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1323,14 +1333,14 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1345,14 +1355,14 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="18">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
@@ -1413,11 +1423,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>9.8235294117647065</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>1.8000000000000005</v>
+        <v>1.9647058823529411</v>
       </c>
     </row>
   </sheetData>
@@ -1432,24 +1442,24 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
-    <col min="5" max="14" width="9.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1457,25 +1467,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1485,7 +1495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1606,7 +1616,9 @@
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1619,10 +1631,10 @@
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1658,7 +1670,9 @@
       <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1671,10 +1685,10 @@
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1684,7 +1698,9 @@
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1697,10 +1713,10 @@
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1710,7 +1726,9 @@
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1723,10 +1741,10 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1736,7 +1754,9 @@
       <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1749,10 +1769,10 @@
       <c r="N12" s="8"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1762,7 +1782,9 @@
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1775,10 +1797,10 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1788,7 +1810,9 @@
       <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1801,10 +1825,10 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1814,7 +1838,9 @@
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1827,10 +1853,10 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -1840,7 +1866,9 @@
       <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1853,10 +1881,10 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -1866,7 +1894,9 @@
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1879,10 +1909,10 @@
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -1892,7 +1922,9 @@
       <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1905,10 +1937,10 @@
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -1918,7 +1950,9 @@
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1931,10 +1965,10 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -1944,7 +1978,9 @@
       <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1957,10 +1993,10 @@
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -1970,7 +2006,9 @@
       <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1983,10 +2021,10 @@
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2012,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2060,7 @@
       </c>
       <c r="D23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
@@ -2062,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
@@ -2072,7 +2110,7 @@
       </c>
       <c r="D24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="37">
         <f t="shared" si="2"/>
@@ -2112,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
@@ -2180,13 +2218,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2200,7 +2238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2212,7 +2250,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2222,7 +2260,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2232,7 +2270,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2242,7 +2280,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2252,7 +2290,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2262,7 +2300,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2272,7 +2310,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2282,7 +2320,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2292,7 +2330,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2302,7 +2340,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2312,7 +2350,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2320,7 +2358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2328,7 +2366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2336,7 +2374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2344,7 +2382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2352,7 +2390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2368,21 +2406,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2401,8 +2440,11 @@
       <c r="F1" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2422,8 +2464,9 @@
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2443,8 +2486,9 @@
         <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2464,8 +2508,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2485,8 +2530,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2506,8 +2552,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2527,8 +2574,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2548,8 +2596,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2569,8 +2618,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2590,8 +2642,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2611,8 +2664,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2632,8 +2688,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2647,8 +2704,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2662,8 +2720,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2677,8 +2736,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2692,8 +2752,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2707,8 +2768,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2722,6 +2784,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G18" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,15 +2800,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2771,7 +2834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2796,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2821,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2846,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2871,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2896,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2921,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2946,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2971,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2996,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3021,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3046,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3060,7 +3123,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3074,7 +3137,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3088,7 +3151,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3102,7 +3165,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3116,7 +3179,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3144,93 +3207,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2574,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="38" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -2596,7 +2598,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="38" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>PARTICIPACION</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -919,11 +922,11 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -957,11 +960,11 @@
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1033,11 +1036,11 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1055,11 +1058,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1093,11 +1096,11 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1131,11 +1134,11 @@
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O12</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,11 +1172,11 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,11 +1210,11 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,11 +1248,11 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1267,11 +1270,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1289,11 +1292,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,11 +1314,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,11 +1336,11 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1355,11 +1358,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,11 +1426,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>9.8235294117647065</v>
+        <v>10.647058823529411</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>1.9647058823529411</v>
+        <v>2.1294117647058819</v>
       </c>
     </row>
   </sheetData>
@@ -1442,11 +1445,11 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1457,7 @@
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
@@ -1590,8 +1593,12 @@
       <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1619,7 +1626,9 @@
       <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1631,7 +1640,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,8 +1653,12 @@
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1657,7 +1670,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1673,7 +1686,9 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1701,7 +1716,9 @@
       <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1713,7 +1730,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1729,7 +1746,9 @@
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1741,7 +1760,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1757,7 +1776,9 @@
       <c r="D12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1769,7 +1790,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1785,7 +1806,9 @@
       <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1797,7 +1820,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1813,7 +1836,9 @@
       <c r="D14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1825,7 +1850,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1841,7 +1866,9 @@
       <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1853,7 +1880,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,7 +1896,9 @@
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1881,7 +1910,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1897,7 +1926,9 @@
       <c r="D17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1909,7 +1940,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1925,7 +1956,9 @@
       <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1937,7 +1970,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,7 +1986,9 @@
       <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1965,7 +2000,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1981,7 +2016,9 @@
       <c r="D20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1993,7 +2030,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2009,7 +2046,9 @@
       <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2034,8 +2073,12 @@
       <c r="C22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2064,7 +2107,7 @@
       </c>
       <c r="E23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="1"/>
@@ -2114,7 +2157,7 @@
       </c>
       <c r="E24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
@@ -2160,11 +2203,11 @@
       </c>
       <c r="D25" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="3"/>
@@ -2408,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -922,11 +922,11 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,11 +998,11 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1058,11 +1058,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,11 +1096,11 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1270,11 +1270,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,11 +1336,11 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,11 +1358,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>10.647058823529411</v>
+        <v>11.294117647058824</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>2.1294117647058819</v>
+        <v>2.2588235294117642</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1449,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1458,8 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1629,7 +1630,9 @@
       <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -1640,7 +1643,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1692,9 @@
       <c r="E9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -1700,7 +1705,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1719,7 +1724,9 @@
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1730,7 +1737,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,7 +1756,9 @@
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1760,7 +1769,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1809,7 +1818,9 @@
       <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1820,7 +1831,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1839,7 +1850,9 @@
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1850,7 +1863,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,7 +1882,9 @@
       <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1880,7 +1895,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1899,7 +1914,9 @@
       <c r="E16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1910,7 +1927,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1989,7 +2006,9 @@
       <c r="E19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -2000,7 +2019,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,7 +2038,9 @@
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2030,7 +2051,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2049,7 +2070,9 @@
       <c r="E21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2060,7 +2083,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2111,7 +2134,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -880,7 +880,7 @@
       </c>
       <c r="H2" s="2">
         <f>PARTICIPACION!F2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
         <f>ASISTENCIA!O6</f>
@@ -888,7 +888,7 @@
       </c>
       <c r="J2" s="12">
         <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
       </c>
       <c r="H3" s="2">
         <f>PARTICIPACION!F3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
@@ -926,7 +926,7 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>2.4000000000000004</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
       </c>
       <c r="H5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="H8" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H10" s="2">
         <f>PARTICIPACION!F9</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="H11" s="2">
         <f>PARTICIPACION!F10</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="H12" s="2">
         <f>PARTICIPACION!F11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H18" s="2">
         <f>PARTICIPACION!F12</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
         <f>ASISTENCIA!O22</f>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H19" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.1818181818181817</v>
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>2.2588235294117642</v>
+        <v>3.8588235294117643</v>
       </c>
     </row>
   </sheetData>
@@ -1445,11 +1445,11 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="F2" s="15">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" s="29"/>
     </row>
@@ -2540,7 +2540,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="29"/>
     </row>
@@ -2584,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="29"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="29"/>
     </row>
@@ -2628,7 +2628,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>66</v>
@@ -2676,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>66</v>
@@ -2700,7 +2700,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="29"/>
     </row>
@@ -2722,7 +2722,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>66</v>
@@ -2746,7 +2746,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12" s="29"/>
     </row>
@@ -2767,9 +2767,15 @@
       <c r="B13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2783,9 +2789,15 @@
       <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2799,12 +2811,18 @@
       <c r="B15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="11">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="29"/>
     </row>
@@ -2815,12 +2833,18 @@
       <c r="B16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="11">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" s="29"/>
     </row>
@@ -2831,12 +2855,18 @@
       <c r="B17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="11">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="29"/>
     </row>
@@ -2847,9 +2877,15 @@
       <c r="B18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -884,11 +884,11 @@
       </c>
       <c r="I2" s="2">
         <f>ASISTENCIA!O6</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="12">
         <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -922,11 +922,11 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>5.6000000000000005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -960,11 +960,11 @@
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -998,11 +998,11 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1058,11 +1058,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,11 +1096,11 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O12</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>6.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1210,11 +1210,11 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>5.2000000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1270,11 +1270,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,11 +1292,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1314,11 +1314,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,11 +1336,11 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,11 +1358,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="I18" s="2">
         <f>ASISTENCIA!O22</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>11.294117647058824</v>
+        <v>12.941176470588236</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>3.8588235294117643</v>
+        <v>4.1882352941176473</v>
       </c>
     </row>
   </sheetData>
@@ -1445,11 +1445,11 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,8 +1458,8 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1600,8 +1600,12 @@
       <c r="E6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1611,7 +1615,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:N6,"") - COUNTIF(C6:N6,"F") - COUNTIF(C6:N6,"T")/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,8 +1637,12 @@
       <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1643,7 +1651,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,9 +1670,15 @@
       <c r="E8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1673,7 +1687,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1695,8 +1709,12 @@
       <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1705,7 +1723,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1727,8 +1745,12 @@
       <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1737,7 +1759,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1759,8 +1781,12 @@
       <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1769,7 +1795,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1788,8 +1814,12 @@
       <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1799,7 +1829,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1821,8 +1851,12 @@
       <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1831,7 +1865,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1853,7 +1887,9 @@
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1863,7 +1899,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1885,8 +1921,12 @@
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1895,7 +1935,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1917,7 +1957,9 @@
       <c r="F16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1927,7 +1969,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1946,9 +1988,15 @@
       <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1957,7 +2005,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,9 +2024,15 @@
       <c r="E18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1987,7 +2041,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2009,7 +2063,9 @@
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2019,7 +2075,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2097,9 @@
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2051,7 +2109,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2073,8 +2131,12 @@
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2083,7 +2145,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2102,8 +2164,12 @@
       <c r="E22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2113,7 +2179,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -2134,15 +2200,15 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="37">
         <f t="shared" si="1"/>
@@ -2234,7 +2300,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="37">
         <f t="shared" si="3"/>
@@ -2474,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -802,26 +802,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -947,8 +947,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>EXPERIENCIA!C4</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -964,10 +963,10 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.3500000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1065,7 +1064,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1179,7 +1178,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>5.2000000000000011</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1277,7 +1276,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1299,7 +1298,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1321,7 +1320,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1343,7 +1342,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1365,7 +1364,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1383,8 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f>EXPERIENCIA!C12</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1400,10 +1398,10 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D19" s="18">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
@@ -1414,7 +1412,7 @@
       </c>
       <c r="F19" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
@@ -1430,7 +1428,7 @@
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>4.1882352941176473</v>
+        <v>4.3029411764705889</v>
       </c>
     </row>
   </sheetData>
@@ -1445,25 +1443,25 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1471,12 +1469,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>56</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1606,7 +1604,9 @@
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1820,7 +1820,9 @@
       <c r="G12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1832,7 +1834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1890,7 +1892,9 @@
       <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1902,7 +1906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -1960,7 +1964,9 @@
       <c r="G16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1972,7 +1978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2066,7 +2072,9 @@
       <c r="G19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -2078,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2100,7 +2108,9 @@
       <c r="G20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2112,7 +2122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2170,7 +2180,9 @@
       <c r="G22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2182,7 +2194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="36" t="s">
         <v>16</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
@@ -2282,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
@@ -2308,7 +2320,7 @@
       </c>
       <c r="H25" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
@@ -2350,13 +2362,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2392,7 +2404,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2402,7 +2414,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2412,7 +2424,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2422,7 +2434,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2432,7 +2444,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2442,7 +2454,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2462,7 +2474,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2472,7 +2484,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2482,7 +2494,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2506,7 +2518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2544,16 +2556,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="3"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2598,7 +2610,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2620,7 +2632,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2642,7 +2654,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2664,7 +2676,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2686,7 +2698,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2780,7 +2792,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2804,7 +2816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2826,7 +2838,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2848,7 +2860,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2870,7 +2882,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2892,7 +2904,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2914,7 +2926,7 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2936,7 +2948,7 @@
       </c>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2972,15 +2984,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3156,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -3181,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -3206,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3281,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3295,7 +3307,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3309,7 +3321,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3323,7 +3335,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3337,7 +3349,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3351,7 +3363,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3379,93 +3391,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -802,26 +802,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -922,14 +922,14 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -966,7 +966,7 @@
         <v>3.3500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -997,14 +997,14 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>5.8000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1035,14 +1035,14 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1057,14 +1057,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1095,14 +1095,14 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1209,14 +1209,14 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.2000000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1247,14 +1247,14 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>5.2000000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1269,14 +1269,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1291,14 +1291,14 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1313,14 +1313,14 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1335,14 +1335,14 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1364,7 +1364,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="18">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
@@ -1424,11 +1424,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>12.941176470588236</v>
+        <v>13.647058823529411</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>4.3029411764705889</v>
+        <v>4.4441176470588237</v>
       </c>
     </row>
   </sheetData>
@@ -1443,25 +1443,25 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="9.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -1469,12 +1469,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>56</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1643,7 +1643,9 @@
       <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1651,10 +1653,10 @@
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1715,7 +1717,9 @@
       <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1723,10 +1727,10 @@
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1751,7 +1755,9 @@
       <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -1759,10 +1765,10 @@
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1787,7 +1793,9 @@
       <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -1795,10 +1803,10 @@
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1823,7 +1831,9 @@
       <c r="H12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1834,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1859,7 +1869,9 @@
       <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -1867,10 +1879,10 @@
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1895,7 +1907,9 @@
       <c r="H14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1903,10 +1917,10 @@
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1931,7 +1945,9 @@
       <c r="H15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1939,10 +1955,10 @@
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -1967,7 +1983,9 @@
       <c r="H16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1975,10 +1993,10 @@
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2003,7 +2021,9 @@
       <c r="H17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -2011,10 +2031,10 @@
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2039,7 +2059,9 @@
       <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -2047,10 +2069,10 @@
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2075,7 +2097,9 @@
       <c r="H19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2083,10 +2107,10 @@
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2122,7 +2146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2147,7 +2171,9 @@
       <c r="H21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2155,10 +2181,10 @@
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2194,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="36" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2250,7 @@
       </c>
       <c r="I23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J23" s="37">
         <f t="shared" si="1"/>
@@ -2244,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2300,7 @@
       </c>
       <c r="I24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="37">
         <f t="shared" si="2"/>
@@ -2294,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="36" t="s">
         <v>17</v>
       </c>
@@ -2362,13 +2388,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -2382,7 +2408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2394,7 +2420,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2404,7 +2430,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2414,7 +2440,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2424,7 +2450,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2434,7 +2460,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2444,7 +2470,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2454,7 +2480,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2464,7 +2490,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2474,7 +2500,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2484,7 +2510,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2494,7 +2520,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2502,7 +2528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2510,7 +2536,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2518,7 +2544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2526,7 +2552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2534,7 +2560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2556,16 +2582,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="3"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2610,7 +2636,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2632,7 +2658,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2654,7 +2680,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2676,7 +2702,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2698,7 +2724,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2722,7 +2748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2746,7 +2772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2770,7 +2796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2792,7 +2818,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2816,7 +2842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2838,7 +2864,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2860,7 +2886,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2882,7 +2908,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2904,7 +2930,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2926,7 +2952,7 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2948,7 +2974,7 @@
       </c>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -2984,15 +3010,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
@@ -3018,7 +3044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3043,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3068,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3093,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3118,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3143,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3168,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -3193,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -3218,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -3243,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3268,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3293,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3307,7 +3333,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3321,7 +3347,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3335,7 +3361,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3349,7 +3375,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3363,7 +3389,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3391,93 +3417,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -997,11 +997,11 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,11 +1057,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,11 +1095,11 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O12</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>5.2000000000000011</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1269,11 +1269,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1291,11 +1291,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1313,11 +1313,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1335,11 +1335,11 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1424,11 +1424,11 @@
       </c>
       <c r="I19" s="18">
         <f t="shared" si="1"/>
-        <v>13.647058823529411</v>
+        <v>14.294117647058824</v>
       </c>
       <c r="J19" s="18">
         <f t="shared" si="1"/>
-        <v>4.4441176470588237</v>
+        <v>4.5735294117647056</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1447,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,8 +1456,8 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1607,7 +1607,9 @@
       <c r="H6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1646,7 +1648,9 @@
       <c r="I7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1681,7 +1685,9 @@
       <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
@@ -1720,14 +1726,16 @@
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1758,14 +1766,16 @@
       <c r="I10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1796,14 +1806,16 @@
       <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1834,14 +1846,16 @@
       <c r="I12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,7 +1886,9 @@
       <c r="I13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1910,14 +1926,16 @@
       <c r="I14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,14 +1966,16 @@
       <c r="I15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1986,14 +2006,16 @@
       <c r="I16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2024,14 +2046,16 @@
       <c r="I17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2062,14 +2086,16 @@
       <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2100,14 +2126,16 @@
       <c r="I19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,7 +2163,9 @@
       <c r="H20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2174,14 +2204,16 @@
       <c r="I21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,7 +2241,9 @@
       <c r="H22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -2254,7 +2288,7 @@
       </c>
       <c r="J23" s="37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" s="37">
         <f t="shared" si="1"/>
@@ -2304,7 +2338,7 @@
       </c>
       <c r="J24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="37">
         <f t="shared" si="2"/>
@@ -2350,7 +2384,7 @@
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="37">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,12 +401,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +456,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -808,20 +805,20 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -853,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -891,7 +888,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -929,7 +926,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -966,7 +963,7 @@
         <v>3.3500000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1064,7 +1061,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1276,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1298,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1320,7 +1317,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1342,7 +1339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1364,7 +1361,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1401,32 +1398,32 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="18">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f t="shared" si="1"/>
         <v>3.5454545454545454</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <f t="shared" si="1"/>
         <v>6.1818181818181817</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <f t="shared" si="1"/>
         <v>14.294117647058824</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <f t="shared" si="1"/>
         <v>4.5735294117647056</v>
       </c>
@@ -1443,39 +1440,39 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="9" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="9" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1497,7 +1494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1535,54 +1532,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1698,7 +1695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1978,7 +1975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2138,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2254,152 +2251,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <f t="shared" ref="C23:N23" si="1">COUNTIF(C6:C22,"=P")</f>
         <v>17</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="35">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="35">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37">
+      <c r="M23" s="35"/>
+      <c r="N23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <f t="shared" ref="C24:N24" si="2">COUNTIF(C6:C22,"=T")</f>
         <v>0</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="35">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="35">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37">
+      <c r="M24" s="35"/>
+      <c r="N24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <f t="shared" ref="C25:N25" si="3">COUNTIF(C6:C22,"=F")</f>
         <v>0</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="35">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="35">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="35">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="35">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37">
+      <c r="M25" s="35"/>
+      <c r="N25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2418,35 +2415,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="11">
@@ -2454,153 +2451,165 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="27" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="37" t="s">
         <v>44</v>
       </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2616,293 +2625,293 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="3"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>12</v>
       </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0)</f>
         <v>6</v>
       </c>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>16</v>
       </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
         <v>8</v>
       </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>16</v>
       </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>16</v>
       </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>20</v>
       </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="38" t="s">
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>20</v>
       </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>12</v>
       </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>12</v>
       </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>12</v>
       </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="11">
@@ -2914,17 +2923,17 @@
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="11">
@@ -2936,17 +2945,17 @@
       <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="11">
@@ -2958,17 +2967,17 @@
       <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="11">
@@ -2980,17 +2989,17 @@
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="11">
@@ -3002,17 +3011,17 @@
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11">
@@ -3024,11 +3033,11 @@
       <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="29"/>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3044,397 +3053,397 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
         <f t="shared" ref="H2:H5" si="0">ROUNDUP(SUM(D2:G2)/4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <f>ROUNDUP(SUM(D6:G6)/4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" ref="H7:H12" si="1">ROUNDUP(SUM(D7:G7)/4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="11"/>
     </row>
   </sheetData>
@@ -3451,94 +3460,94 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -805,20 +805,20 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -919,14 +919,14 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -956,14 +956,14 @@
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>3.3500000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -994,14 +994,14 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1032,14 +1032,14 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1054,14 +1054,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1092,14 +1092,14 @@
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1168,14 +1168,14 @@
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1244,14 +1244,14 @@
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1273,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1317,7 +1317,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1332,14 +1332,14 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1354,14 +1354,14 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
-        <v>14.294117647058824</v>
+        <v>14.882352941176471</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>4.5735294117647056</v>
+        <v>4.6911764705882364</v>
       </c>
     </row>
   </sheetData>
@@ -1444,21 +1444,21 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="9" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="9.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1466,12 +1466,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1607,7 +1607,9 @@
       <c r="I6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1617,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1648,16 +1650,18 @@
       <c r="J7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1685,17 +1689,21 @@
       <c r="I8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1726,16 +1734,18 @@
       <c r="J9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1766,16 +1776,18 @@
       <c r="J10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1806,16 +1818,18 @@
       <c r="J11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1846,7 +1860,9 @@
       <c r="J12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1855,7 +1871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1886,16 +1902,18 @@
       <c r="J13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1966,16 +1984,18 @@
       <c r="J15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2006,7 +2026,9 @@
       <c r="J16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -2015,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2055,7 +2077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2095,7 +2117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2126,16 +2148,18 @@
       <c r="J19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2163,17 +2187,21 @@
       <c r="I20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2204,16 +2232,18 @@
       <c r="J21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2241,7 +2271,9 @@
       <c r="I22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -2251,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2321,7 @@
       </c>
       <c r="K23" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L23" s="35">
         <f t="shared" si="1"/>
@@ -2301,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2371,7 @@
       </c>
       <c r="K24" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="35">
         <f t="shared" si="2"/>
@@ -2351,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2417,7 @@
       </c>
       <c r="J25" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="35">
         <f t="shared" si="3"/>
@@ -2419,13 +2451,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2451,7 +2483,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2461,7 +2493,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2471,7 +2503,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2481,7 +2513,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2491,7 +2523,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2501,7 +2533,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2511,7 +2543,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2521,7 +2553,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2531,7 +2563,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2541,7 +2573,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2551,7 +2583,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2561,7 +2593,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2571,7 +2603,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2581,7 +2613,7 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2591,7 +2623,7 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2601,7 +2633,7 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2625,16 +2657,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="3"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2689,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2679,7 +2711,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2701,7 +2733,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2723,7 +2755,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2745,7 +2777,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2767,7 +2799,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2791,7 +2823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2815,7 +2847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2839,7 +2871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2861,7 +2893,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2885,7 +2917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2907,7 +2939,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2929,7 +2961,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2951,7 +2983,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2973,7 +3005,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2995,7 +3027,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3017,7 +3049,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3053,15 +3085,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -3087,7 +3119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3112,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3137,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3162,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3187,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3212,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3237,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3262,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3287,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3312,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3337,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3362,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3376,7 +3408,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3390,7 +3422,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3404,7 +3436,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3418,7 +3450,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3432,7 +3464,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3460,93 +3492,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -799,26 +799,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="F3" s="2">
         <f>EXPERIENCIA!C3</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -923,10 +923,10 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -944,7 +944,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>19</v>
+        <f>EXPERIENCIA!C4</f>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -960,10 +961,10 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>3.5500000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -982,7 +983,7 @@
       </c>
       <c r="F5" s="2">
         <f>EXPERIENCIA!C5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -998,10 +999,10 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1020,7 +1021,7 @@
       </c>
       <c r="F6" s="2">
         <f>EXPERIENCIA!C6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1036,10 +1037,10 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.6000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1049,7 +1050,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <f>EXPERIENCIA!C7</f>
+        <v>20</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
@@ -1058,10 +1062,10 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>EXPERIENCIA!C7</f>
+        <f>EXPERIENCIA!C8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
@@ -1099,7 +1103,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1117,8 +1121,8 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f>EXPERIENCIA!C8</f>
-        <v>0</v>
+        <f>EXPERIENCIA!C9</f>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1134,10 +1138,10 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1155,8 +1159,8 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f>EXPERIENCIA!C9</f>
-        <v>0</v>
+        <f>EXPERIENCIA!C10</f>
+        <v>14</v>
       </c>
       <c r="G10" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1172,10 +1176,10 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1193,8 +1197,8 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f>EXPERIENCIA!C10</f>
-        <v>0</v>
+        <f>EXPERIENCIA!C11</f>
+        <v>20</v>
       </c>
       <c r="G11" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1210,10 +1214,10 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f>EXPERIENCIA!C11</f>
+        <f>EXPERIENCIA!C12</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
@@ -1251,7 +1255,7 @@
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1261,7 +1265,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <f>EXPERIENCIA!C13</f>
+        <v>12</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
@@ -1270,10 +1277,10 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1283,7 +1290,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <f>EXPERIENCIA!C14</f>
+        <v>17</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
@@ -1292,10 +1302,10 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1305,7 +1315,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <f>EXPERIENCIA!C15</f>
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
@@ -1317,7 +1330,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1327,7 +1340,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <f>EXPERIENCIA!C16</f>
+        <v>0</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
@@ -1339,7 +1355,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1349,7 +1365,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f>EXPERIENCIA!C17</f>
+        <v>20</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
@@ -1358,10 +1377,10 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1379,6 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
+        <f>EXPERIENCIA!C18</f>
         <v>20</v>
       </c>
       <c r="G18" s="2">
@@ -1398,7 +1418,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
@@ -1409,7 +1429,7 @@
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>3.5454545454545454</v>
+        <v>12.117647058823529</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
@@ -1425,7 +1445,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>4.6911764705882364</v>
+        <v>5.1823529411764699</v>
       </c>
     </row>
   </sheetData>
@@ -1444,21 +1464,21 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1466,12 +1486,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -1494,7 +1514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1532,7 +1552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1579,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1610,7 +1630,9 @@
       <c r="J6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1619,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1661,7 +1683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1703,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1745,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1787,7 +1809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1829,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1871,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1913,7 +1935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1944,7 +1966,9 @@
       <c r="J14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -1953,7 +1977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -1995,7 +2019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2037,7 +2061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2068,7 +2092,9 @@
       <c r="J17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -2077,7 +2103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2108,7 +2134,9 @@
       <c r="J18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2117,7 +2145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2159,7 +2187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2201,7 +2229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2243,7 +2271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2274,7 +2302,9 @@
       <c r="J22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
@@ -2283,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
@@ -2421,7 +2451,7 @@
       </c>
       <c r="K25" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="35">
         <f t="shared" si="3"/>
@@ -2447,17 +2477,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -2471,7 +2501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2483,57 +2513,67 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11">
+        <v>18</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="11">
+        <v>18</v>
+      </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11">
+        <v>20</v>
+      </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2543,37 +2583,43 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="11">
+        <v>17</v>
+      </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>14</v>
+      </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="11">
+        <v>20</v>
+      </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2583,64 +2629,72 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="11">
+        <v>12</v>
+      </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="11">
+        <v>17</v>
+      </c>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="11">
+        <v>20</v>
+      </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="11">
+        <v>20</v>
+      </c>
       <c r="D18" s="27"/>
     </row>
   </sheetData>
@@ -2657,16 +2711,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="3"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2689,7 +2743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2711,7 +2765,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2733,7 +2787,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2755,7 +2809,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2777,7 +2831,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2799,7 +2853,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2823,7 +2877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2847,7 +2901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2871,7 +2925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2893,7 +2947,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2917,7 +2971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2939,7 +2993,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -2961,7 +3015,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -2983,7 +3037,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3005,7 +3059,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3027,7 +3081,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3049,7 +3103,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3085,15 +3139,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -3119,7 +3173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3144,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3169,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3194,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3219,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3244,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3269,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3294,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3319,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3344,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3369,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3394,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3408,7 +3462,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3422,7 +3476,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3436,7 +3490,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3450,7 +3504,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3464,7 +3518,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3492,93 +3546,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,6 +461,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,7 +808,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,8 +816,8 @@
     <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
@@ -864,15 +870,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>INVESTIGACION!H2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>EXPERIENCIA!C2</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>EXPERIENCIA!D2</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -902,20 +905,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>INVESTIGACION!H3</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
-        <f>EXPERIENCIA!C3</f>
         <v>18</v>
       </c>
       <c r="G3" s="2">
-        <f>EXPERIENCIA!D3</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2">
         <f>PARTICIPACION!F3</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
@@ -923,7 +923,7 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>7.3000000000000007</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -940,20 +940,17 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>INVESTIGACION!H4</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
-        <f>EXPERIENCIA!C4</f>
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <f>EXPERIENCIA!D4</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
@@ -961,7 +958,7 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>3.1</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -978,20 +975,17 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>INVESTIGACION!H5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>EXPERIENCIA!C5</f>
         <v>18</v>
       </c>
       <c r="G5" s="2">
-        <f>EXPERIENCIA!D5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2">
         <f>PARTICIPACION!F5</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
@@ -999,7 +993,7 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>7.3000000000000007</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1016,20 +1010,17 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f>INVESTIGACION!H6</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <f>EXPERIENCIA!C6</f>
         <v>20</v>
       </c>
       <c r="G6" s="2">
-        <f>EXPERIENCIA!D6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
@@ -1037,7 +1028,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>7.6000000000000005</v>
+        <v>12.000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,20 +1040,26 @@
         <v>33</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
       <c r="F7" s="2">
-        <f>EXPERIENCIA!C7</f>
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2">
+        <f>PARTICIPACION!F7</f>
+        <v>18</v>
+      </c>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
         <v>17</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>14.35</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1079,20 +1076,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f>INVESTIGACION!H7</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f>EXPERIENCIA!C8</f>
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <f>EXPERIENCIA!D7</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>PARTICIPACION!F7</f>
-        <v>10</v>
+        <f>PARTICIPACION!F8</f>
+        <v>6</v>
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O11</f>
@@ -1100,7 +1092,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>7.4</v>
+        <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1117,20 +1109,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f>INVESTIGACION!H8</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
-        <f>EXPERIENCIA!C9</f>
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <f>EXPERIENCIA!D8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <f>PARTICIPACION!F8</f>
-        <v>0</v>
+        <f>PARTICIPACION!F9</f>
+        <v>14</v>
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O12</f>
@@ -1138,7 +1127,7 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>3.45</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1155,20 +1144,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f>INVESTIGACION!H9</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
-        <f>EXPERIENCIA!C10</f>
         <v>14</v>
       </c>
       <c r="G10" s="2">
-        <f>EXPERIENCIA!D9</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
-        <f>PARTICIPACION!F9</f>
-        <v>10</v>
+        <f>PARTICIPACION!F10</f>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O13</f>
@@ -1193,20 +1179,17 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f>INVESTIGACION!H10</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
-        <f>EXPERIENCIA!C11</f>
         <v>20</v>
       </c>
       <c r="G11" s="2">
-        <f>EXPERIENCIA!D10</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
-        <f>PARTICIPACION!F10</f>
-        <v>6</v>
+        <f>PARTICIPACION!F11</f>
+        <v>12</v>
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O14</f>
@@ -1214,7 +1197,7 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1231,20 +1214,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f>INVESTIGACION!H11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <f>EXPERIENCIA!C12</f>
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <f>EXPERIENCIA!D11</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="2">
-        <f>PARTICIPACION!F11</f>
-        <v>6</v>
+        <f>PARTICIPACION!F12</f>
+        <v>12</v>
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O15</f>
@@ -1252,7 +1230,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>5.8000000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1264,20 +1242,26 @@
         <v>39</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>17</v>
+      </c>
       <c r="F13" s="2">
-        <f>EXPERIENCIA!C13</f>
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <f>PARTICIPACION!F13</f>
+        <v>0</v>
+      </c>
       <c r="I13" s="2">
         <f>ASISTENCIA!O16</f>
         <v>15</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1289,20 +1273,26 @@
         <v>40</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>11</v>
+      </c>
       <c r="F14" s="2">
-        <f>EXPERIENCIA!C14</f>
         <v>17</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f>PARTICIPACION!F14</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="2">
         <f>ASISTENCIA!O17</f>
         <v>15</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1314,20 +1304,24 @@
         <v>41</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <f>EXPERIENCIA!C15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f>PARTICIPACION!F15</f>
+        <v>14</v>
+      </c>
       <c r="I15" s="2">
         <f>ASISTENCIA!O18</f>
         <v>16</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>9.6500000000000021</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1339,20 +1333,24 @@
         <v>42</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f>EXPERIENCIA!C16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2">
+        <f>PARTICIPACION!F16</f>
+        <v>10</v>
+      </c>
       <c r="I16" s="2">
         <f>ASISTENCIA!O19</f>
         <v>16</v>
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1364,20 +1362,26 @@
         <v>43</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>18</v>
+      </c>
       <c r="F17" s="2">
-        <f>EXPERIENCIA!C17</f>
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <f>PARTICIPACION!F17</f>
+        <v>12</v>
+      </c>
       <c r="I17" s="2">
         <f>ASISTENCIA!O20</f>
         <v>14</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>9.5000000000000018</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1394,20 +1398,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <f>INVESTIGACION!H12</f>
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f>EXPERIENCIA!C18</f>
         <v>20</v>
       </c>
       <c r="G18" s="2">
-        <f>EXPERIENCIA!D12</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <f>PARTICIPACION!F12</f>
-        <v>6</v>
+        <f>PARTICIPACION!F18</f>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
         <f>ASISTENCIA!O22</f>
@@ -1415,7 +1416,7 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1425,19 +1426,19 @@
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.176470588235293</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>12.117647058823529</v>
+        <v>15.846153846153847</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
-        <v>6.1818181818181817</v>
+        <v>9.2941176470588243</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
@@ -1445,7 +1446,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>5.1823529411764699</v>
+        <v>8.5352941176470605</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2479,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2708,7 +2709,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2717,8 @@
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="3"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2776,14 +2778,14 @@
         <v>16</v>
       </c>
       <c r="D3" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" s="27"/>
     </row>
@@ -2798,14 +2800,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="27"/>
     </row>
@@ -2820,14 +2822,14 @@
         <v>16</v>
       </c>
       <c r="D5" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G5" s="27"/>
     </row>
@@ -2842,14 +2844,14 @@
         <v>16</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" s="27"/>
     </row>
@@ -2864,14 +2866,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>66</v>
@@ -2888,14 +2890,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>66</v>
@@ -2912,14 +2914,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>66</v>
@@ -2958,14 +2960,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>66</v>
@@ -2982,14 +2984,14 @@
         <v>12</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G12" s="27"/>
     </row>
@@ -3048,14 +3050,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" s="27"/>
     </row>
@@ -3070,14 +3072,14 @@
         <v>12</v>
       </c>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E16" s="11">
         <v>0</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" s="27"/>
     </row>
@@ -3092,14 +3094,14 @@
         <v>16</v>
       </c>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17" s="27"/>
     </row>
@@ -3114,14 +3116,14 @@
         <v>0</v>
       </c>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="27"/>
     </row>
@@ -3136,14 +3138,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
@@ -3205,7 +3209,9 @@
       <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="D3" s="13">
         <v>0</v>
       </c>
@@ -3455,7 +3461,7 @@
       <c r="B13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -3469,7 +3475,9 @@
       <c r="B14" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -3483,7 +3491,7 @@
       <c r="B15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -3497,7 +3505,7 @@
       <c r="B16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -3511,7 +3519,7 @@
       <c r="B17" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -3525,7 +3533,7 @@
       <c r="B18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -805,26 +805,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -856,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -884,14 +884,14 @@
       </c>
       <c r="I2" s="2">
         <f>ASISTENCIA!O6</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="12">
         <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -919,14 +919,14 @@
       </c>
       <c r="I3" s="2">
         <f>ASISTENCIA!O7</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -954,14 +954,14 @@
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>6.3000000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>18</v>
@@ -989,14 +989,14 @@
       </c>
       <c r="I5" s="2">
         <f>ASISTENCIA!O9</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1024,14 +1024,14 @@
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>12.000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12.400000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1039,7 +1039,9 @@
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>15</v>
       </c>
@@ -1055,14 +1057,14 @@
       </c>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>14.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1087,15 +1089,15 @@
         <v>6</v>
       </c>
       <c r="I8" s="2">
-        <f>ASISTENCIA!O11</f>
-        <v>17</v>
+        <f>ASISTENCIA!O12</f>
+        <v>15</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>5.8000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1122,15 +1124,15 @@
         <v>14</v>
       </c>
       <c r="I9" s="2">
-        <f>ASISTENCIA!O12</f>
-        <v>13</v>
+        <f>ASISTENCIA!O13</f>
+        <v>18</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1157,15 +1159,15 @@
         <v>6</v>
       </c>
       <c r="I10" s="2">
-        <f>ASISTENCIA!O13</f>
-        <v>16</v>
+        <f>ASISTENCIA!O14</f>
+        <v>17</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1192,15 +1194,15 @@
         <v>12</v>
       </c>
       <c r="I11" s="2">
-        <f>ASISTENCIA!O14</f>
-        <v>15</v>
+        <f>ASISTENCIA!O15</f>
+        <v>19</v>
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.950000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="2">
-        <f>ASISTENCIA!O15</f>
+        <f>ASISTENCIA!O16</f>
         <v>17</v>
       </c>
       <c r="J12" s="12">
@@ -1233,7 +1235,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1241,7 +1243,9 @@
       <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="E13" s="2">
         <v>17</v>
       </c>
@@ -1256,15 +1260,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>ASISTENCIA!O16</f>
-        <v>15</v>
+        <f>ASISTENCIA!O17</f>
+        <v>16</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6">
         <v>13</v>
@@ -1272,7 +1276,9 @@
       <c r="C14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
@@ -1287,15 +1293,15 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>ASISTENCIA!O17</f>
-        <v>15</v>
+        <f>ASISTENCIA!O18</f>
+        <v>18</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6">
         <v>14</v>
@@ -1303,7 +1309,9 @@
       <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="2">
         <v>17</v>
       </c>
@@ -1316,15 +1324,15 @@
         <v>14</v>
       </c>
       <c r="I15" s="2">
-        <f>ASISTENCIA!O18</f>
-        <v>16</v>
+        <f>ASISTENCIA!O19</f>
+        <v>18</v>
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>9.6500000000000021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6">
         <v>15</v>
@@ -1332,7 +1340,9 @@
       <c r="C16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
       <c r="E16" s="2">
         <v>18</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="2">
-        <f>ASISTENCIA!O19</f>
+        <f>ASISTENCIA!O20</f>
         <v>16</v>
       </c>
       <c r="J16" s="12">
@@ -1353,7 +1363,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6">
         <v>16</v>
@@ -1361,7 +1371,9 @@
       <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
         <v>18</v>
       </c>
@@ -1376,15 +1388,15 @@
         <v>12</v>
       </c>
       <c r="I17" s="2">
-        <f>ASISTENCIA!O20</f>
-        <v>14</v>
+        <f>ASISTENCIA!O21</f>
+        <v>18</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>9.5000000000000018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1419,14 +1431,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
         <v>0</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>11.176470588235293</v>
+        <v>13.647058823529411</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
@@ -1442,11 +1454,11 @@
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
-        <v>14.882352941176471</v>
+        <v>16.588235294117649</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>8.5352941176470605</v>
+        <v>9.0000000000000036</v>
       </c>
     </row>
   </sheetData>
@@ -1461,25 +1473,25 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="9.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1487,12 +1499,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -1553,7 +1565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1634,15 +1646,19 @@
       <c r="K6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:N6,"") - COUNTIF(C6:N6,"F") - COUNTIF(C6:N6,"T")/2,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1676,15 +1692,19 @@
       <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N7" s="8"/>
       <c r="O7" s="2">
         <f t="shared" ref="O7:O22" si="0">ROUNDUP( 20  - COUNTIF(C7:N7,"") - COUNTIF(C7:N7,"F") - COUNTIF(C7:N7,"T")/2,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1718,15 +1738,19 @@
       <c r="K8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1760,15 +1784,19 @@
       <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1802,15 +1830,19 @@
       <c r="K10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1844,15 +1876,19 @@
       <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1886,15 +1922,19 @@
       <c r="K12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -1928,15 +1968,19 @@
       <c r="K13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -1970,15 +2014,19 @@
       <c r="K14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2012,15 +2060,19 @@
       <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N15" s="8"/>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2054,15 +2106,19 @@
       <c r="K16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2096,15 +2152,19 @@
       <c r="K17" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -2138,15 +2198,19 @@
       <c r="K18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2180,15 +2244,19 @@
       <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -2222,15 +2290,19 @@
       <c r="K20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -2264,15 +2336,19 @@
       <c r="K21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="N21" s="8"/>
       <c r="O21" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -2306,15 +2382,19 @@
       <c r="K22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
@@ -2356,15 +2436,18 @@
       </c>
       <c r="L23" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="35"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="35">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="N23" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>15</v>
       </c>
@@ -2406,15 +2489,18 @@
       </c>
       <c r="L24" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="N24" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
@@ -2456,9 +2542,12 @@
       </c>
       <c r="L25" s="35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="N25" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2482,13 +2571,13 @@
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -2502,7 +2591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2514,7 +2603,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2526,7 +2615,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2538,7 +2627,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2550,7 +2639,7 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2562,7 +2651,7 @@
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2574,7 +2663,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2584,7 +2673,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2596,7 +2685,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2608,7 +2697,7 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2620,7 +2709,7 @@
       </c>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2630,7 +2719,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2642,7 +2731,7 @@
       </c>
       <c r="D13" s="27"/>
     </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2654,7 +2743,7 @@
       </c>
       <c r="D14" s="27"/>
     </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2664,7 +2753,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="27"/>
     </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2674,7 +2763,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="27"/>
     </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2686,7 +2775,7 @@
       </c>
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2712,17 +2801,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2767,7 +2856,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -2789,7 +2878,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -2811,7 +2900,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -2833,7 +2922,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -2855,7 +2944,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2879,7 +2968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2903,7 +2992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2927,7 +3016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2949,7 +3038,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -2973,7 +3062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -2995,7 +3084,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3017,7 +3106,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3039,7 +3128,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3061,7 +3150,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3083,7 +3172,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3105,7 +3194,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3141,17 +3230,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
@@ -3177,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -3202,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -3229,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3254,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -3279,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -3304,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3329,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -3354,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3379,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3404,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -3429,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -3454,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -3468,7 +3557,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -3484,7 +3573,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -3498,7 +3587,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3512,7 +3601,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -3526,7 +3615,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -3554,93 +3643,93 @@
       <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>44</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -805,10 +805,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>16</v>
@@ -888,7 +888,7 @@
       </c>
       <c r="J2" s="12">
         <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>5.6000000000000005</v>
+        <v>9.2000000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>13</v>
@@ -923,7 +923,7 @@
       </c>
       <c r="J3" s="12">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>10.950000000000001</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>16</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>14</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>16</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>12.400000000000002</v>
+        <v>15.200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>14.75</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1075,7 +1075,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>12</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8.2000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>11</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,7 +1143,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2">
         <v>16</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>8.1000000000000014</v>
+        <v>10.700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>11</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>10.950000000000001</v>
+        <v>12.950000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>9.5500000000000007</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>17</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>6.15</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,7 +1310,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
         <v>17</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>10.050000000000001</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
         <v>18</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>8.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>18</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
-        <v>0</v>
+        <v>11.705882352941176</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>9.0000000000000036</v>
+        <v>11.341176470588238</v>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1473,7 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -808,7 +808,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,8 +887,8 @@
         <v>12</v>
       </c>
       <c r="J2" s="12">
-        <f>D2*0.2+E2*0.05+F2*0.05+G2*0.1+H2*0.4+I2*0.2</f>
-        <v>9.2000000000000011</v>
+        <f>D2*0.2+E2*0.4+F2*0.05+G2*0.05+H2*0.1+I2*0.2</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -922,8 +922,8 @@
         <v>18</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.05+F3*0.05+G3*0.1+H3*0.4+I3*0.2</f>
-        <v>13.55</v>
+        <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.4+F3*0.05+G3*0.05+H3*0.1+I3*0.2</f>
+        <v>14.000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>16</v>
@@ -958,7 +958,7 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>10.3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
       </c>
       <c r="J5" s="12">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>14.900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>15.200000000000003</v>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>17.55</v>
+        <v>16.400000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>8.2000000000000011</v>
+        <v>10.600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>13.4</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>10.700000000000001</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>12.950000000000001</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>10.55</v>
+        <v>10.400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>7.95</v>
+        <v>13.150000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>12.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>14.400000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>12.3</v>
+        <v>14.999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1428,13 +1428,13 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
-        <v>11.705882352941176</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>11.341176470588238</v>
+        <v>13.002941176470591</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -805,10 +805,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="H6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>16.200000000000003</v>
+        <v>15.800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
-        <v>9.2941176470588243</v>
+        <v>9.0588235294117645</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>13.002941176470591</v>
+        <v>12.979411764705885</v>
       </c>
     </row>
   </sheetData>
@@ -1477,17 +1477,16 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:M1048576"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2568,7 +2567,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,12 +2934,10 @@
       <c r="D6" s="13">
         <v>8</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="27"/>
     </row>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>PARTICIPACION</t>
@@ -458,12 +455,14 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,10 +804,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,15 +949,15 @@
       </c>
       <c r="H4" s="2">
         <f>PARTICIPACION!F4</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I4" s="2">
         <f>ASISTENCIA!O8</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1020,7 +1019,7 @@
       </c>
       <c r="H6" s="2">
         <f>PARTICIPACION!F6</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2">
         <f>ASISTENCIA!O10</f>
@@ -1028,7 +1027,7 @@
       </c>
       <c r="J6" s="12">
         <f t="shared" si="0"/>
-        <v>15.800000000000002</v>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,7 +1052,7 @@
       </c>
       <c r="H7" s="2">
         <f>PARTICIPACION!F7</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2">
         <f>ASISTENCIA!O11</f>
@@ -1061,7 +1060,7 @@
       </c>
       <c r="J7" s="12">
         <f t="shared" si="0"/>
-        <v>16.400000000000002</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,7 +1085,7 @@
       </c>
       <c r="H8" s="2">
         <f>PARTICIPACION!F8</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2">
         <f>ASISTENCIA!O12</f>
@@ -1094,7 +1093,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>10.600000000000001</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1121,7 +1120,7 @@
       </c>
       <c r="H9" s="2">
         <f>PARTICIPACION!F9</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <f>ASISTENCIA!O13</f>
@@ -1129,7 +1128,7 @@
       </c>
       <c r="J9" s="12">
         <f t="shared" si="0"/>
-        <v>12.65</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1156,15 +1155,15 @@
       </c>
       <c r="H10" s="2">
         <f>PARTICIPACION!F10</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I10" s="2">
         <f>ASISTENCIA!O14</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="0"/>
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,7 +1190,7 @@
       </c>
       <c r="H11" s="2">
         <f>PARTICIPACION!F11</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="2">
         <f>ASISTENCIA!O15</f>
@@ -1199,7 +1198,7 @@
       </c>
       <c r="J11" s="12">
         <f t="shared" si="0"/>
-        <v>12.8</v>
+        <v>12.900000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1218,21 +1217,23 @@
       <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="2">
         <f>PARTICIPACION!F12</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2">
         <f>ASISTENCIA!O16</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>10.400000000000002</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,15 +1258,15 @@
       </c>
       <c r="H13" s="2">
         <f>PARTICIPACION!F13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
         <f>ASISTENCIA!O17</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>13.150000000000002</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1290,15 +1291,15 @@
       </c>
       <c r="H14" s="2">
         <f>PARTICIPACION!F14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
         <f>ASISTENCIA!O18</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>11.65</v>
+        <v>12.650000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1442,7 +1443,7 @@
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>15.846153846153847</v>
+        <v>14.714285714285714</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
@@ -1450,15 +1451,15 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
-        <v>9.0588235294117645</v>
+        <v>11.882352941176471</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
-        <v>16.588235294117649</v>
+        <v>16.882352941176471</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>12.979411764705885</v>
+        <v>13.320588235294121</v>
       </c>
     </row>
   </sheetData>
@@ -1477,16 +1478,17 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,28 +1624,28 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>22</v>
@@ -1714,13 +1716,13 @@
         <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>22</v>
@@ -1729,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>22</v>
@@ -1743,10 +1745,12 @@
       <c r="M8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1767,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>22</v>
@@ -1784,7 +1788,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>22</v>
@@ -1904,13 +1908,13 @@
         <v>22</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>65</v>
@@ -2002,7 +2006,7 @@
         <v>22</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>22</v>
@@ -2011,7 +2015,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>65</v>
@@ -2019,10 +2023,12 @@
       <c r="M14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O14" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2100,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2111,10 +2117,12 @@
       <c r="M16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O16" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -2149,7 +2157,7 @@
         <v>22</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>65</v>
@@ -2157,10 +2165,12 @@
       <c r="M17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O17" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2195,7 +2205,7 @@
         <v>65</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>22</v>
@@ -2203,10 +2213,12 @@
       <c r="M18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O18" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>22</v>
@@ -2278,13 +2290,13 @@
         <v>22</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>22</v>
@@ -2315,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>22</v>
@@ -2358,34 +2370,34 @@
         <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="2">
@@ -2443,7 +2455,7 @@
       </c>
       <c r="N23" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
@@ -2766,7 +2778,7 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="11">
@@ -2778,7 +2790,7 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11">
@@ -2796,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2819,7 @@
     <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,7 +2842,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2850,10 +2862,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="13">
-        <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0)</f>
+        <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
         <v>6</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
@@ -2872,10 +2886,12 @@
         <v>0</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0)</f>
+        <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
         <v>12</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -2891,13 +2907,15 @@
         <v>12</v>
       </c>
       <c r="E4" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G4" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -2919,7 +2937,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -2934,12 +2954,16 @@
       <c r="D6" s="13">
         <v>8</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G6" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -2959,10 +2983,10 @@
       </c>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,14 +3003,14 @@
         <v>12</v>
       </c>
       <c r="E8" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,10 +3031,10 @@
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,13 +3051,15 @@
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G10" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -3053,10 +3079,10 @@
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,13 +3099,15 @@
         <v>12</v>
       </c>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -3095,13 +3123,15 @@
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -3117,13 +3147,15 @@
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -3145,7 +3177,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
@@ -3167,7 +3201,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -3189,7 +3225,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -3211,7 +3249,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,8 +3335,8 @@
       <c r="B3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>69</v>
+      <c r="C3" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="13">
         <v>0</v>
@@ -3562,7 +3602,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -807,7 +807,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,13 +939,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
         <f>PARTICIPACION!F4</f>
@@ -957,7 +957,7 @@
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>16.700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,13 +1281,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
         <v>17</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
         <f>PARTICIPACION!F14</f>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>12.650000000000002</v>
+        <v>14.250000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>13.647058823529411</v>
+        <v>13.823529411764707</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>6.7647058823529411</v>
+        <v>8.6470588235294112</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>13.320588235294121</v>
+        <v>13.48529411764706</v>
       </c>
     </row>
   </sheetData>
@@ -2809,7 +2809,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -807,7 +807,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,14 +1074,16 @@
         <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <f>PARTICIPACION!F8</f>
@@ -1093,7 +1095,7 @@
       </c>
       <c r="J8" s="12">
         <f t="shared" si="0"/>
-        <v>11.3</v>
+        <v>12.500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1212,13 +1214,13 @@
         <v>38</v>
       </c>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
@@ -1233,7 +1235,7 @@
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>10.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1245,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2">
         <v>17</v>
@@ -1266,7 +1268,7 @@
       </c>
       <c r="J13" s="12">
         <f t="shared" si="0"/>
-        <v>14.05</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1437,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
-        <v>11.764705882352942</v>
+        <v>12.411764705882353</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
@@ -1443,11 +1445,11 @@
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>14.714285714285714</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>8.6470588235294112</v>
+        <v>9.235294117647058</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
@@ -1459,7 +1461,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>13.48529411764706</v>
+        <v>13.714705882352943</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -807,7 +807,7 @@
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,11 +815,11 @@
     <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -872,10 +872,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="2">
         <f>PARTICIPACION!F2</f>
@@ -887,7 +887,7 @@
       </c>
       <c r="J2" s="12">
         <f>D2*0.2+E2*0.4+F2*0.05+G2*0.05+H2*0.1+I2*0.2</f>
-        <v>13</v>
+        <v>13.010000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1318,9 +1318,11 @@
       <c r="E15" s="2">
         <v>17</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0.1</v>
+      </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="2">
         <f>PARTICIPACION!F15</f>
@@ -1332,7 +1334,7 @@
       </c>
       <c r="J15" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>14.010000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1351,9 @@
       <c r="E16" s="2">
         <v>18</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0.1</v>
+      </c>
       <c r="G16" s="2">
         <v>8</v>
       </c>
@@ -1363,7 +1367,7 @@
       </c>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
-        <v>14.400000000000002</v>
+        <v>14.405000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="2">
         <f>PARTICIPACION!F17</f>
@@ -1396,7 +1400,7 @@
       </c>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
-        <v>14.999999999999998</v>
+        <v>15.005000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1410,16 +1414,16 @@
         <v>44</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="2">
         <v>20</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H18" s="2">
         <f>PARTICIPACION!F18</f>
@@ -1431,25 +1435,25 @@
       </c>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.5649999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
-        <v>12.411764705882353</v>
+        <v>12.41764705882353</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="1"/>
-        <v>13.823529411764707</v>
+        <v>13.829411764705881</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="1"/>
-        <v>15.333333333333334</v>
+        <v>13.547058823529412</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="1"/>
-        <v>9.235294117647058</v>
+        <v>9.2588235294117638</v>
       </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="J19" s="16">
         <f t="shared" si="1"/>
-        <v>13.714705882352943</v>
+        <v>13.720294117647059</v>
       </c>
     </row>
   </sheetData>
@@ -1480,17 +1484,16 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="14" width="9.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
